--- a/run_entrance/test_suite/test_suite_sb04申报制证.xlsx
+++ b/run_entrance/test_suite/test_suite_sb04申报制证.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>模块</t>
   </si>
@@ -181,7 +181,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -303,12 +303,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +325,94 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -335,64 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -401,6 +431,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -409,39 +461,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,22 +476,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -486,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,21 +683,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -724,8 +715,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,7 +740,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,30 +783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -785,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,133 +803,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -972,9 +978,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -984,6 +987,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,7 +1373,7 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1384,7 +1390,7 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1399,7 +1405,7 @@
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1414,7 +1420,7 @@
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1445,13 +1451,13 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -1462,17 +1468,17 @@
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1483,7 +1489,7 @@
       <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -1525,13 +1531,13 @@
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1553,13 +1559,13 @@
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1570,7 +1576,7 @@
       <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1599,13 +1605,13 @@
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1613,61 +1619,61 @@
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" s="1"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:5">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:5">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:5">
-      <c r="B22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="8"/>
       <c r="D22" s="26"/>
       <c r="E22" s="25"/>
@@ -1687,7 +1693,7 @@
       <c r="B25" s="8"/>
     </row>
     <row r="27" ht="14.25" spans="6:6">
-      <c r="F27" s="18"/>
+      <c r="F27" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1700,7 +1706,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1714,12 +1720,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="18" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1739,8 +1748,8 @@
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="43.875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="41.75" style="19" customWidth="1"/>
+    <col min="4" max="4" width="43.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="41.75" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
@@ -1753,10 +1762,10 @@
       <c r="C1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1770,13 +1779,13 @@
       <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1784,14 +1793,14 @@
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1799,10 +1808,10 @@
       <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="27" spans="1:5">
       <c r="A5" t="s">
@@ -1811,10 +1820,10 @@
       <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1825,10 +1834,10 @@
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1841,12 +1850,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2122,68 +2131,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="14.25" spans="1:6">
       <c r="A18" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="16">
-        <v>18888888888</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:6">
+      <c r="C18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:5">
+      <c r="C19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:3">
       <c r="A20" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="3:5">
+    <row r="22" ht="14.25" spans="3:5">
+      <c r="C22" s="8"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="3:3">
       <c r="C23" s="8"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="8"/>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
     </row>

--- a/run_entrance/test_suite/test_suite_sb04申报制证.xlsx
+++ b/run_entrance/test_suite/test_suite_sb04申报制证.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="1"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -303,10 +303,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -333,6 +333,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -342,6 +350,106 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,53 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,68 +476,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -492,67 +492,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,103 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,36 +687,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +712,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,6 +749,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -768,21 +783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -791,145 +791,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1706,7 +1706,7 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1852,7 +1852,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A18" sqref="$A18:$XFD18"/>
